--- a/public/assets/template-import/template-mapel.xlsx
+++ b/public/assets/template-import/template-mapel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\si_nilai_laravel\public\assets\template-import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D5F0125-A65B-46CC-A027-B4686C537BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C69F3F-0CDC-4817-BEE1-7A3BD182B91B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FD1C1EA2-EF82-4541-9D20-7E7404648E31}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Kelompok</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Otomatisasi Tata Kelola Perkantoran</t>
+  </si>
+  <si>
+    <t>Urutan</t>
   </si>
 </sst>
 </file>
@@ -142,7 +145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -154,6 +157,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -470,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E1E831E-EB83-48E1-B11D-198E0B64257C}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,9 +488,10 @@
     <col min="2" max="2" width="8.28515625" customWidth="1"/>
     <col min="3" max="3" width="27.42578125" customWidth="1"/>
     <col min="5" max="5" width="36.5703125" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -503,8 +510,11 @@
       <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -522,6 +532,9 @@
       </c>
       <c r="F2" s="1">
         <v>75</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/public/assets/template-import/template-mapel.xlsx
+++ b/public/assets/template-import/template-mapel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\si_nilai_laravel\public\assets\template-import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C69F3F-0CDC-4817-BEE1-7A3BD182B91B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3126683-6BA3-457E-BC0C-CBBE894F05F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FD1C1EA2-EF82-4541-9D20-7E7404648E31}"/>
+    <workbookView xWindow="-210" yWindow="11400" windowWidth="20730" windowHeight="11040" xr2:uid="{FD1C1EA2-EF82-4541-9D20-7E7404648E31}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -145,11 +145,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -159,7 +156,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -479,61 +482,62 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" customWidth="1"/>
-    <col min="5" max="5" width="36.5703125" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.5703125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="57.42578125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="6"/>
+    <col min="5" max="5" width="36.5703125" style="6" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="5">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="5">
         <v>75</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="5">
         <v>1</v>
       </c>
     </row>
